--- a/CDIO_mapping_specification.xlsx
+++ b/CDIO_mapping_specification.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/komalgilani/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/komalgilani/Documents/GitHub/cdio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C4F3B9-946F-8348-8C15-46939E032812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7CB8DE8-76CD-DD4A-8501-ECCE8C6C635D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16940" activeTab="2" xr2:uid="{0466CC29-52C2-604A-ABFC-39BB9EDA87F2}"/>
+    <workbookView xWindow="220" yWindow="-23320" windowWidth="27640" windowHeight="16940" activeTab="3" xr2:uid="{0466CC29-52C2-604A-ABFC-39BB9EDA87F2}"/>
   </bookViews>
   <sheets>
     <sheet name="why BFO" sheetId="1" r:id="rId1"/>
     <sheet name="BFO_OBO_Coverage" sheetId="2" r:id="rId2"/>
     <sheet name="BFO_SULO_Mapping" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Statistics" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="260">
   <si>
     <t>Criterion</t>
   </si>
@@ -840,12 +840,48 @@
   <si>
     <t>sulo:hasFeature</t>
   </si>
+  <si>
+    <t>Ontologies</t>
+  </si>
+  <si>
+    <t>Object Properties</t>
+  </si>
+  <si>
+    <t>Relation Ontology</t>
+  </si>
+  <si>
+    <t>Basic Formal Ontology</t>
+  </si>
+  <si>
+    <t>Ontology for Biomedical and Clinical Statistics</t>
+  </si>
+  <si>
+    <t>Statistics Ontology</t>
+  </si>
+  <si>
+    <t>Data Use ontology</t>
+  </si>
+  <si>
+    <t>Semanticscience Integrated Ontology</t>
+  </si>
+  <si>
+    <t>NCBI Taxonomy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total </t>
+  </si>
+  <si>
+    <t>Clinical Data Integration Ontology</t>
+  </si>
+  <si>
+    <t>Data Property</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -921,12 +957,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="1"/>
@@ -1000,19 +1030,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1021,44 +1042,47 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1421,126 +1445,126 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AC332CB-BF81-D349-B5A7-8E8783689EEE}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView zoomScale="263" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="17" style="2" customWidth="1"/>
-    <col min="3" max="3" width="4.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.83203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="25.1640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="34.6640625" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="30.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17" style="1" customWidth="1"/>
+    <col min="3" max="3" width="4.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="34.6640625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="22">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="5" t="s">
+      <c r="C1" s="24"/>
+      <c r="D1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="22" customHeight="1">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="23"/>
+      <c r="D2" s="1" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="137">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="23"/>
+      <c r="D3" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="40">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:6" ht="69">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="2" t="s">
+      <c r="C4" s="23"/>
+      <c r="D4" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="20">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:6" ht="35">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="2" t="s">
+      <c r="C5" s="23"/>
+      <c r="D5" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="69">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="2" t="s">
+      <c r="C6" s="23"/>
+      <c r="D6" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="40">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:6" ht="60">
+      <c r="A7" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="23">
         <v>439</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="2" t="s">
+      <c r="C7" s="23"/>
+      <c r="D7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>176</v>
       </c>
     </row>
@@ -1563,7 +1587,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{809DEFBE-1B6A-7641-9DF1-D8D6DC901D48}">
   <dimension ref="A1:H126"/>
   <sheetViews>
-    <sheetView zoomScale="137" zoomScaleNormal="180" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="89" zoomScaleNormal="180" workbookViewId="0">
       <selection activeCell="E9" sqref="E9:E10"/>
     </sheetView>
   </sheetViews>
@@ -1579,22 +1603,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="9" t="s">
         <v>16</v>
       </c>
       <c r="H1" t="s">
@@ -1605,22 +1629,22 @@
       <c r="A2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="4">
         <v>36</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="8" t="s">
+      <c r="E2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="6" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1628,178 +1652,178 @@
       <c r="A3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="4">
         <v>1</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="9"/>
+      <c r="G3" s="26"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="7">
-        <v>14</v>
-      </c>
-      <c r="C4" s="12" t="s">
+      <c r="B4" s="4">
+        <v>14</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="9"/>
+      <c r="E4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="26"/>
     </row>
     <row r="5" spans="1:8" ht="34">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="4">
         <v>36</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="9"/>
+      <c r="D5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="26"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="4">
         <v>36</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="9"/>
+      <c r="E6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="26"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="4">
         <v>21</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="9"/>
+      <c r="D7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="26"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="4">
         <v>12</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="9"/>
+      <c r="E8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="26"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="4">
         <v>27</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="9"/>
+      <c r="D9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="26"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="4">
         <v>35</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="9"/>
+      <c r="E10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="26"/>
     </row>
     <row r="11" spans="1:8" ht="17">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="4">
         <v>1</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="9"/>
+      <c r="G11" s="26"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="4">
         <v>35</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1807,16 +1831,16 @@
       <c r="A13" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="4">
         <v>16</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="7" t="s">
+      <c r="D13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1824,16 +1848,16 @@
       <c r="A14" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="4">
         <v>23</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="7" t="s">
+      <c r="D14" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1841,16 +1865,16 @@
       <c r="A15" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="4">
         <v>1</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="4" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1858,16 +1882,16 @@
       <c r="A16" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="4">
         <v>17</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" s="7" t="s">
+      <c r="D16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1875,16 +1899,16 @@
       <c r="A17" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="4">
         <v>35</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="7" t="s">
+      <c r="D17" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1892,16 +1916,16 @@
       <c r="A18" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="4">
         <v>1</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="4" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1909,16 +1933,16 @@
       <c r="A19" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="4">
         <v>27</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1926,16 +1950,16 @@
       <c r="A20" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="4">
         <v>35</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1943,16 +1967,16 @@
       <c r="A21" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="4">
         <v>35</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1960,16 +1984,16 @@
       <c r="A22" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="4">
         <v>35</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1977,16 +2001,16 @@
       <c r="A23" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="4">
         <v>2</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="4" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1994,16 +2018,16 @@
       <c r="A24" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="4">
         <v>21</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D24" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E24" s="7" t="s">
+      <c r="D24" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2011,16 +2035,16 @@
       <c r="A25" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="4">
         <v>35</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2028,16 +2052,16 @@
       <c r="A26" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="4">
         <v>35</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E26" s="7" t="s">
+      <c r="D26" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2045,16 +2069,16 @@
       <c r="A27" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="4">
         <v>35</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E27" s="7" t="s">
+      <c r="D27" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2062,16 +2086,16 @@
       <c r="A28" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="4">
         <v>35</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D28" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E28" s="7" t="s">
+      <c r="D28" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2079,16 +2103,16 @@
       <c r="A29" t="s">
         <v>52</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="4">
         <v>21</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E29" s="7" t="s">
+      <c r="D29" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2096,16 +2120,16 @@
       <c r="A30" t="s">
         <v>53</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30" s="4">
         <v>11</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2113,16 +2137,16 @@
       <c r="A31" t="s">
         <v>54</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="4">
         <v>1</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C31" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="4" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2130,16 +2154,16 @@
       <c r="A32" t="s">
         <v>58</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="4">
         <v>1</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="4" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2147,16 +2171,16 @@
       <c r="A33" t="s">
         <v>59</v>
       </c>
-      <c r="B33" s="7">
-        <v>14</v>
-      </c>
-      <c r="C33" s="12" t="s">
+      <c r="B33" s="4">
+        <v>14</v>
+      </c>
+      <c r="C33" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E33" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2164,16 +2188,16 @@
       <c r="A34" t="s">
         <v>60</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B34" s="4">
         <v>8</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C34" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="E34" s="4" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2181,16 +2205,16 @@
       <c r="A35" t="s">
         <v>61</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B35" s="4">
         <v>20</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C35" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D35" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E35" s="7" t="s">
+      <c r="D35" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E35" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2198,16 +2222,16 @@
       <c r="A36" t="s">
         <v>62</v>
       </c>
-      <c r="B36" s="7">
+      <c r="B36" s="4">
         <v>7</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C36" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="E36" s="4" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2215,16 +2239,16 @@
       <c r="A37" t="s">
         <v>63</v>
       </c>
-      <c r="B37" s="7">
+      <c r="B37" s="4">
         <v>17</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C37" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D37" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E37" s="7" t="s">
+      <c r="D37" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E37" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2232,17 +2256,17 @@
       <c r="A38" t="s">
         <v>64</v>
       </c>
-      <c r="B38" s="7">
+      <c r="B38" s="4">
         <f ca="1">B38</f>
         <v>0</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C38" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="E38" s="4" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2250,16 +2274,16 @@
       <c r="A39" t="s">
         <v>65</v>
       </c>
-      <c r="B39" s="7">
-        <v>14</v>
-      </c>
-      <c r="C39" s="12" t="s">
+      <c r="B39" s="4">
+        <v>14</v>
+      </c>
+      <c r="C39" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="E39" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2267,16 +2291,16 @@
       <c r="A40" t="s">
         <v>66</v>
       </c>
-      <c r="B40" s="10">
+      <c r="B40" s="5">
         <v>2</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C40" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D40" s="10" t="s">
+      <c r="D40" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E40" s="10" t="s">
+      <c r="E40" s="5" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2284,16 +2308,16 @@
       <c r="A41" t="s">
         <v>67</v>
       </c>
-      <c r="B41" s="7">
+      <c r="B41" s="4">
         <v>9</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C41" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D41" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E41" s="7" t="s">
+      <c r="D41" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E41" s="4" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2301,16 +2325,16 @@
       <c r="A42" t="s">
         <v>68</v>
       </c>
-      <c r="B42" s="7">
+      <c r="B42" s="4">
         <v>9</v>
       </c>
-      <c r="C42" s="12" t="s">
+      <c r="C42" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D42" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E42" s="7" t="s">
+      <c r="D42" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E42" s="4" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2318,16 +2342,16 @@
       <c r="A43" t="s">
         <v>71</v>
       </c>
-      <c r="B43" s="7">
+      <c r="B43" s="4">
         <v>1</v>
       </c>
-      <c r="C43" s="12" t="s">
+      <c r="C43" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="E43" s="4" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2335,16 +2359,16 @@
       <c r="A44" t="s">
         <v>73</v>
       </c>
-      <c r="B44" s="7">
+      <c r="B44" s="4">
         <v>18</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="C44" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D44" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E44" s="7" t="s">
+      <c r="D44" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E44" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2352,16 +2376,16 @@
       <c r="A45" t="s">
         <v>74</v>
       </c>
-      <c r="B45" s="7">
+      <c r="B45" s="4">
         <v>11</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C45" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D45" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E45" s="7" t="s">
+      <c r="D45" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E45" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2369,16 +2393,16 @@
       <c r="A46" t="s">
         <v>75</v>
       </c>
-      <c r="B46" s="7">
+      <c r="B46" s="4">
         <v>18</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="C46" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D46" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E46" s="7" t="s">
+      <c r="D46" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E46" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2386,16 +2410,16 @@
       <c r="A47" t="s">
         <v>76</v>
       </c>
-      <c r="B47" s="7">
+      <c r="B47" s="4">
         <v>12</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="C47" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="D47" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="E47" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2403,16 +2427,16 @@
       <c r="A48" t="s">
         <v>77</v>
       </c>
-      <c r="B48" s="7">
-        <v>14</v>
-      </c>
-      <c r="C48" s="13" t="s">
+      <c r="B48" s="4">
+        <v>14</v>
+      </c>
+      <c r="C48" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D48" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E48" s="7" t="s">
+      <c r="D48" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E48" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2420,16 +2444,16 @@
       <c r="A49" t="s">
         <v>78</v>
       </c>
-      <c r="B49" s="7">
+      <c r="B49" s="4">
         <v>2</v>
       </c>
-      <c r="C49" s="13" t="s">
+      <c r="C49" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D49" s="10" t="s">
+      <c r="D49" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E49" s="10" t="s">
+      <c r="E49" s="5" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2437,16 +2461,16 @@
       <c r="A50" t="s">
         <v>79</v>
       </c>
-      <c r="B50" s="7">
+      <c r="B50" s="4">
         <v>17</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="C50" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D50" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E50" s="7" t="s">
+      <c r="D50" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E50" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2454,16 +2478,16 @@
       <c r="A51" t="s">
         <v>80</v>
       </c>
-      <c r="B51" s="7">
+      <c r="B51" s="4">
         <v>18</v>
       </c>
-      <c r="C51" s="13" t="s">
+      <c r="C51" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D51" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E51" s="7" t="s">
+      <c r="D51" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E51" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2471,16 +2495,16 @@
       <c r="A52" t="s">
         <v>81</v>
       </c>
-      <c r="B52" s="7">
-        <v>15</v>
-      </c>
-      <c r="C52" s="13" t="s">
+      <c r="B52" s="4">
+        <v>15</v>
+      </c>
+      <c r="C52" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D52" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E52" s="7" t="s">
+      <c r="D52" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E52" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2488,16 +2512,16 @@
       <c r="A53" t="s">
         <v>82</v>
       </c>
-      <c r="B53" s="10">
+      <c r="B53" s="5">
         <v>2</v>
       </c>
-      <c r="C53" s="13" t="s">
+      <c r="C53" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D53" s="10" t="s">
+      <c r="D53" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E53" s="10" t="s">
+      <c r="E53" s="5" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2505,16 +2529,16 @@
       <c r="A54" t="s">
         <v>83</v>
       </c>
-      <c r="B54" s="7">
-        <v>15</v>
-      </c>
-      <c r="C54" s="13" t="s">
+      <c r="B54" s="4">
+        <v>15</v>
+      </c>
+      <c r="C54" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D54" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E54" s="7" t="s">
+      <c r="D54" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E54" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2522,16 +2546,16 @@
       <c r="A55" t="s">
         <v>84</v>
       </c>
-      <c r="B55" s="7">
-        <v>15</v>
-      </c>
-      <c r="C55" s="13" t="s">
+      <c r="B55" s="4">
+        <v>15</v>
+      </c>
+      <c r="C55" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D55" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E55" s="7" t="s">
+      <c r="D55" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E55" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2539,16 +2563,16 @@
       <c r="A56" t="s">
         <v>85</v>
       </c>
-      <c r="B56" s="7">
+      <c r="B56" s="4">
         <v>13</v>
       </c>
-      <c r="C56" s="13" t="s">
+      <c r="C56" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D56" s="7" t="s">
+      <c r="D56" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E56" s="7" t="s">
+      <c r="E56" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2556,16 +2580,16 @@
       <c r="A57" t="s">
         <v>87</v>
       </c>
-      <c r="B57" s="7">
-        <v>14</v>
-      </c>
-      <c r="C57" s="13" t="s">
+      <c r="B57" s="4">
+        <v>14</v>
+      </c>
+      <c r="C57" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D57" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E57" s="7" t="s">
+      <c r="D57" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E57" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2573,16 +2597,16 @@
       <c r="A58" t="s">
         <v>88</v>
       </c>
-      <c r="B58" s="7">
+      <c r="B58" s="4">
         <v>6</v>
       </c>
-      <c r="C58" s="13" t="s">
+      <c r="C58" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D58" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E58" s="7" t="s">
+      <c r="D58" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E58" s="4" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2590,16 +2614,16 @@
       <c r="A59" t="s">
         <v>86</v>
       </c>
-      <c r="B59" s="7">
+      <c r="B59" s="4">
         <v>17</v>
       </c>
-      <c r="C59" s="13" t="s">
+      <c r="C59" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D59" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E59" s="7" t="s">
+      <c r="D59" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E59" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2607,16 +2631,16 @@
       <c r="A60" t="s">
         <v>89</v>
       </c>
-      <c r="B60" s="7">
+      <c r="B60" s="4">
         <v>19</v>
       </c>
-      <c r="C60" s="13" t="s">
+      <c r="C60" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D60" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E60" s="7" t="s">
+      <c r="D60" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E60" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2624,16 +2648,16 @@
       <c r="A61" t="s">
         <v>90</v>
       </c>
-      <c r="B61" s="7">
+      <c r="B61" s="4">
         <v>35</v>
       </c>
-      <c r="C61" s="13" t="s">
+      <c r="C61" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="D61" s="7" t="s">
+      <c r="D61" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E61" s="7" t="s">
+      <c r="E61" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2641,16 +2665,16 @@
       <c r="A62" t="s">
         <v>92</v>
       </c>
-      <c r="B62" s="7">
+      <c r="B62" s="4">
         <v>35</v>
       </c>
-      <c r="C62" s="13" t="s">
+      <c r="C62" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="D62" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E62" s="7" t="s">
+      <c r="D62" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E62" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2658,16 +2682,16 @@
       <c r="A63" t="s">
         <v>93</v>
       </c>
-      <c r="B63" s="7">
+      <c r="B63" s="4">
         <v>35</v>
       </c>
-      <c r="C63" s="13" t="s">
+      <c r="C63" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="D63" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E63" s="7" t="s">
+      <c r="D63" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E63" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2675,16 +2699,16 @@
       <c r="A64" t="s">
         <v>94</v>
       </c>
-      <c r="B64" s="7">
+      <c r="B64" s="4">
         <v>21</v>
       </c>
-      <c r="C64" s="13" t="s">
+      <c r="C64" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="D64" s="7" t="s">
+      <c r="D64" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E64" s="7" t="s">
+      <c r="E64" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2692,16 +2716,16 @@
       <c r="A65" t="s">
         <v>95</v>
       </c>
-      <c r="B65" s="7">
+      <c r="B65" s="4">
         <v>35</v>
       </c>
-      <c r="C65" s="13" t="s">
+      <c r="C65" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="D65" s="7" t="s">
+      <c r="D65" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E65" s="7" t="s">
+      <c r="E65" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2709,16 +2733,16 @@
       <c r="A66" t="s">
         <v>96</v>
       </c>
-      <c r="B66" s="7">
+      <c r="B66" s="4">
         <v>35</v>
       </c>
-      <c r="C66" s="13" t="s">
+      <c r="C66" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="D66" s="7" t="s">
+      <c r="D66" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E66" s="7" t="s">
+      <c r="E66" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2726,16 +2750,16 @@
       <c r="A67" t="s">
         <v>97</v>
       </c>
-      <c r="B67" s="7">
+      <c r="B67" s="4">
         <v>35</v>
       </c>
-      <c r="C67" s="13" t="s">
+      <c r="C67" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="D67" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E67" s="7" t="s">
+      <c r="D67" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E67" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2743,16 +2767,16 @@
       <c r="A68" t="s">
         <v>98</v>
       </c>
-      <c r="B68" s="7">
+      <c r="B68" s="4">
         <v>24</v>
       </c>
-      <c r="C68" s="13" t="s">
+      <c r="C68" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="D68" s="7" t="s">
+      <c r="D68" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E68" s="7" t="s">
+      <c r="E68" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2760,16 +2784,16 @@
       <c r="A69" t="s">
         <v>99</v>
       </c>
-      <c r="B69" s="7">
+      <c r="B69" s="4">
         <v>10</v>
       </c>
-      <c r="C69" s="13" t="s">
+      <c r="C69" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="D69" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E69" s="7" t="s">
+      <c r="D69" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E69" s="4" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2777,16 +2801,16 @@
       <c r="A70" t="s">
         <v>100</v>
       </c>
-      <c r="B70" s="7">
-        <v>14</v>
-      </c>
-      <c r="C70" s="13" t="s">
+      <c r="B70" s="4">
+        <v>14</v>
+      </c>
+      <c r="C70" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="D70" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E70" s="7" t="s">
+      <c r="D70" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E70" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2794,16 +2818,16 @@
       <c r="A71" t="s">
         <v>101</v>
       </c>
-      <c r="B71" s="7">
-        <v>15</v>
-      </c>
-      <c r="C71" s="13" t="s">
+      <c r="B71" s="4">
+        <v>15</v>
+      </c>
+      <c r="C71" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="D71" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E71" s="7" t="s">
+      <c r="D71" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E71" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2811,16 +2835,16 @@
       <c r="A72" t="s">
         <v>102</v>
       </c>
-      <c r="B72" s="7">
+      <c r="B72" s="4">
         <v>22</v>
       </c>
-      <c r="C72" s="13" t="s">
+      <c r="C72" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="D72" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E72" s="7" t="s">
+      <c r="D72" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E72" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2828,16 +2852,16 @@
       <c r="A73" t="s">
         <v>103</v>
       </c>
-      <c r="B73" s="7">
+      <c r="B73" s="4">
         <v>28</v>
       </c>
-      <c r="C73" s="13" t="s">
+      <c r="C73" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="D73" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E73" s="7" t="s">
+      <c r="D73" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E73" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2845,16 +2869,16 @@
       <c r="A74" t="s">
         <v>105</v>
       </c>
-      <c r="B74" s="7">
+      <c r="B74" s="4">
         <v>23</v>
       </c>
-      <c r="C74" s="13" t="s">
+      <c r="C74" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="D74" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E74" s="7" t="s">
+      <c r="D74" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E74" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2862,16 +2886,16 @@
       <c r="A75" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B75" s="7">
+      <c r="B75" s="4">
         <v>24</v>
       </c>
-      <c r="C75" s="13" t="s">
+      <c r="C75" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="D75" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E75" s="7" t="s">
+      <c r="D75" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E75" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2879,16 +2903,16 @@
       <c r="A76" t="s">
         <v>107</v>
       </c>
-      <c r="B76" s="7">
+      <c r="B76" s="4">
         <v>35</v>
       </c>
-      <c r="C76" s="13" t="s">
+      <c r="C76" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="D76" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E76" s="7" t="s">
+      <c r="D76" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E76" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2896,16 +2920,16 @@
       <c r="A77" t="s">
         <v>108</v>
       </c>
-      <c r="B77" s="7">
+      <c r="B77" s="4">
         <v>18</v>
       </c>
-      <c r="C77" s="13" t="s">
+      <c r="C77" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="D77" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E77" s="7" t="s">
+      <c r="D77" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E77" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2913,16 +2937,16 @@
       <c r="A78" t="s">
         <v>109</v>
       </c>
-      <c r="B78" s="7">
+      <c r="B78" s="4">
         <v>23</v>
       </c>
-      <c r="C78" s="13" t="s">
+      <c r="C78" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="D78" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E78" s="7" t="s">
+      <c r="D78" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E78" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2930,16 +2954,16 @@
       <c r="A79" t="s">
         <v>110</v>
       </c>
-      <c r="B79" s="7">
+      <c r="B79" s="4">
         <v>6</v>
       </c>
-      <c r="C79" s="13" t="s">
+      <c r="C79" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="D79" s="7" t="s">
+      <c r="D79" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E79" s="7" t="s">
+      <c r="E79" s="4" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2947,16 +2971,16 @@
       <c r="A80" t="s">
         <v>112</v>
       </c>
-      <c r="B80" s="7">
+      <c r="B80" s="4">
         <v>8</v>
       </c>
-      <c r="C80" s="13" t="s">
+      <c r="C80" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="D80" s="7" t="s">
+      <c r="D80" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E80" s="7" t="s">
+      <c r="E80" s="4" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2964,16 +2988,16 @@
       <c r="A81" t="s">
         <v>113</v>
       </c>
-      <c r="B81" s="7">
+      <c r="B81" s="4">
         <v>35</v>
       </c>
-      <c r="C81" s="13" t="s">
+      <c r="C81" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="D81" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E81" s="7" t="s">
+      <c r="D81" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E81" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2981,16 +3005,16 @@
       <c r="A82" t="s">
         <v>114</v>
       </c>
-      <c r="B82" s="7">
-        <v>15</v>
-      </c>
-      <c r="C82" s="13" t="s">
+      <c r="B82" s="4">
+        <v>15</v>
+      </c>
+      <c r="C82" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="D82" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E82" s="7" t="s">
+      <c r="D82" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E82" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2998,16 +3022,16 @@
       <c r="A83" t="s">
         <v>115</v>
       </c>
-      <c r="B83" s="7">
+      <c r="B83" s="4">
         <v>2</v>
       </c>
-      <c r="C83" s="13" t="s">
+      <c r="C83" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="D83" s="7" t="s">
+      <c r="D83" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E83" s="7" t="s">
+      <c r="E83" s="4" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3015,16 +3039,16 @@
       <c r="A84" t="s">
         <v>116</v>
       </c>
-      <c r="B84" s="7">
+      <c r="B84" s="4">
         <v>17</v>
       </c>
-      <c r="C84" s="13" t="s">
+      <c r="C84" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="D84" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E84" s="7" t="s">
+      <c r="D84" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E84" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3032,16 +3056,16 @@
       <c r="A85" t="s">
         <v>117</v>
       </c>
-      <c r="B85" s="7">
+      <c r="B85" s="4">
         <v>1</v>
       </c>
-      <c r="C85" s="13" t="s">
+      <c r="C85" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="D85" s="7" t="s">
+      <c r="D85" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E85" s="7" t="s">
+      <c r="E85" s="4" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3049,16 +3073,16 @@
       <c r="A86" t="s">
         <v>118</v>
       </c>
-      <c r="B86" s="7">
+      <c r="B86" s="4">
         <v>7</v>
       </c>
-      <c r="C86" s="13" t="s">
+      <c r="C86" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="D86" s="7" t="s">
+      <c r="D86" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E86" s="7" t="s">
+      <c r="E86" s="4" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3066,16 +3090,16 @@
       <c r="A87" t="s">
         <v>119</v>
       </c>
-      <c r="B87" s="7">
+      <c r="B87" s="4">
         <v>16</v>
       </c>
-      <c r="C87" s="13" t="s">
+      <c r="C87" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="D87" s="7" t="s">
+      <c r="D87" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E87" s="7" t="s">
+      <c r="E87" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3083,16 +3107,16 @@
       <c r="A88" t="s">
         <v>121</v>
       </c>
-      <c r="B88" s="7">
+      <c r="B88" s="4">
         <v>1</v>
       </c>
-      <c r="C88" s="13" t="s">
+      <c r="C88" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="D88" s="7" t="s">
+      <c r="D88" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E88" s="7" t="s">
+      <c r="E88" s="4" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3100,16 +3124,16 @@
       <c r="A89" t="s">
         <v>122</v>
       </c>
-      <c r="B89" s="10">
+      <c r="B89" s="5">
         <v>1</v>
       </c>
-      <c r="C89" s="13" t="s">
+      <c r="C89" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="D89" s="10" t="s">
+      <c r="D89" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E89" s="10" t="s">
+      <c r="E89" s="5" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3117,16 +3141,16 @@
       <c r="A90" t="s">
         <v>123</v>
       </c>
-      <c r="B90" s="7">
+      <c r="B90" s="4">
         <v>35</v>
       </c>
-      <c r="C90" s="13" t="s">
+      <c r="C90" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="D90" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E90" s="7" t="s">
+      <c r="D90" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E90" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3134,16 +3158,16 @@
       <c r="A91" t="s">
         <v>124</v>
       </c>
-      <c r="B91" s="7">
+      <c r="B91" s="4">
         <v>4</v>
       </c>
-      <c r="C91" s="13" t="s">
+      <c r="C91" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="D91" s="7" t="s">
+      <c r="D91" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E91" s="7" t="s">
+      <c r="E91" s="4" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3151,16 +3175,16 @@
       <c r="A92" t="s">
         <v>125</v>
       </c>
-      <c r="B92" s="7">
+      <c r="B92" s="4">
         <v>3</v>
       </c>
-      <c r="C92" s="13" t="s">
+      <c r="C92" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="D92" s="7" t="s">
+      <c r="D92" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E92" s="7" t="s">
+      <c r="E92" s="4" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3168,16 +3192,16 @@
       <c r="A93" t="s">
         <v>126</v>
       </c>
-      <c r="B93" s="7">
+      <c r="B93" s="4">
         <v>33</v>
       </c>
-      <c r="C93" s="13" t="s">
+      <c r="C93" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="D93" s="7" t="s">
+      <c r="D93" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E93" s="7" t="s">
+      <c r="E93" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3185,16 +3209,16 @@
       <c r="A94" t="s">
         <v>127</v>
       </c>
-      <c r="B94" s="7">
+      <c r="B94" s="4">
         <v>5</v>
       </c>
-      <c r="C94" s="13" t="s">
+      <c r="C94" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="D94" s="7" t="s">
+      <c r="D94" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E94" s="7" t="s">
+      <c r="E94" s="4" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3202,13 +3226,13 @@
       <c r="A95" t="s">
         <v>128</v>
       </c>
-      <c r="B95" s="7">
+      <c r="B95" s="4">
         <v>19</v>
       </c>
-      <c r="C95" s="13" t="s">
+      <c r="C95" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="D95" s="7" t="s">
+      <c r="D95" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3216,16 +3240,16 @@
       <c r="A96" t="s">
         <v>129</v>
       </c>
-      <c r="B96" s="7">
+      <c r="B96" s="4">
         <v>2</v>
       </c>
-      <c r="C96" s="13" t="s">
+      <c r="C96" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="D96" s="7" t="s">
+      <c r="D96" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E96" s="7" t="s">
+      <c r="E96" s="4" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3233,16 +3257,16 @@
       <c r="A97" t="s">
         <v>130</v>
       </c>
-      <c r="B97" s="7">
+      <c r="B97" s="4">
         <v>2</v>
       </c>
-      <c r="C97" s="13" t="s">
+      <c r="C97" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="D97" s="7" t="s">
+      <c r="D97" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E97" s="7" t="s">
+      <c r="E97" s="4" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3250,16 +3274,16 @@
       <c r="A98" t="s">
         <v>131</v>
       </c>
-      <c r="B98" s="7">
+      <c r="B98" s="4">
         <v>1</v>
       </c>
-      <c r="C98" s="13" t="s">
+      <c r="C98" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="D98" s="7" t="s">
+      <c r="D98" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E98" s="7" t="s">
+      <c r="E98" s="4" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3267,16 +3291,16 @@
       <c r="A99" t="s">
         <v>132</v>
       </c>
-      <c r="B99" s="7">
+      <c r="B99" s="4">
         <v>31</v>
       </c>
-      <c r="C99" s="13" t="s">
+      <c r="C99" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="D99" s="7" t="s">
+      <c r="D99" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E99" s="7" t="s">
+      <c r="E99" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3284,16 +3308,16 @@
       <c r="A100" t="s">
         <v>134</v>
       </c>
-      <c r="B100" s="7">
+      <c r="B100" s="4">
         <v>9</v>
       </c>
-      <c r="C100" s="14" t="s">
+      <c r="C100" t="s">
         <v>133</v>
       </c>
-      <c r="D100" s="7" t="s">
+      <c r="D100" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E100" s="7" t="s">
+      <c r="E100" s="4" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3301,16 +3325,16 @@
       <c r="A101" t="s">
         <v>135</v>
       </c>
-      <c r="B101" s="7">
+      <c r="B101" s="4">
         <v>12</v>
       </c>
-      <c r="C101" s="14" t="s">
+      <c r="C101" t="s">
         <v>133</v>
       </c>
-      <c r="D101" s="7" t="s">
+      <c r="D101" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E101" s="7" t="s">
+      <c r="E101" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3318,16 +3342,16 @@
       <c r="A102" t="s">
         <v>136</v>
       </c>
-      <c r="B102" s="7">
+      <c r="B102" s="4">
         <v>19</v>
       </c>
-      <c r="C102" s="14" t="s">
+      <c r="C102" t="s">
         <v>133</v>
       </c>
-      <c r="D102" s="7" t="s">
+      <c r="D102" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E102" s="7" t="s">
+      <c r="E102" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3335,16 +3359,16 @@
       <c r="A103" t="s">
         <v>137</v>
       </c>
-      <c r="B103" s="7">
+      <c r="B103" s="4">
         <v>16</v>
       </c>
-      <c r="C103" s="14" t="s">
+      <c r="C103" t="s">
         <v>133</v>
       </c>
-      <c r="D103" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E103" s="7" t="s">
+      <c r="D103" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E103" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3352,16 +3376,16 @@
       <c r="A104" t="s">
         <v>139</v>
       </c>
-      <c r="B104" s="7">
+      <c r="B104" s="4">
         <v>35</v>
       </c>
-      <c r="C104" s="14" t="s">
+      <c r="C104" t="s">
         <v>138</v>
       </c>
-      <c r="D104" s="7" t="s">
+      <c r="D104" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E104" s="7" t="s">
+      <c r="E104" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3369,16 +3393,16 @@
       <c r="A105" t="s">
         <v>140</v>
       </c>
-      <c r="B105" s="7">
+      <c r="B105" s="4">
         <v>1</v>
       </c>
-      <c r="C105" s="14" t="s">
+      <c r="C105" t="s">
         <v>138</v>
       </c>
-      <c r="D105" s="7" t="s">
+      <c r="D105" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E105" s="7" t="s">
+      <c r="E105" s="4" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3386,16 +3410,16 @@
       <c r="A106" t="s">
         <v>141</v>
       </c>
-      <c r="B106" s="7">
+      <c r="B106" s="4">
         <v>4</v>
       </c>
-      <c r="C106" s="14" t="s">
+      <c r="C106" t="s">
         <v>138</v>
       </c>
-      <c r="D106" s="7" t="s">
+      <c r="D106" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E106" s="7" t="s">
+      <c r="E106" s="4" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3403,16 +3427,16 @@
       <c r="A107" t="s">
         <v>142</v>
       </c>
-      <c r="B107" s="7">
+      <c r="B107" s="4">
         <v>35</v>
       </c>
-      <c r="C107" s="14" t="s">
+      <c r="C107" t="s">
         <v>138</v>
       </c>
-      <c r="D107" s="7" t="s">
+      <c r="D107" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E107" s="7" t="s">
+      <c r="E107" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3420,16 +3444,16 @@
       <c r="A108" t="s">
         <v>143</v>
       </c>
-      <c r="B108" s="7">
+      <c r="B108" s="4">
         <v>35</v>
       </c>
-      <c r="C108" s="14" t="s">
+      <c r="C108" t="s">
         <v>138</v>
       </c>
-      <c r="D108" s="7" t="s">
+      <c r="D108" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E108" s="7" t="s">
+      <c r="E108" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3437,16 +3461,16 @@
       <c r="A109" t="s">
         <v>144</v>
       </c>
-      <c r="B109" s="7">
+      <c r="B109" s="4">
         <v>3</v>
       </c>
-      <c r="C109" s="14" t="s">
+      <c r="C109" t="s">
         <v>138</v>
       </c>
-      <c r="D109" s="7" t="s">
+      <c r="D109" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E109" s="7" t="s">
+      <c r="E109" s="4" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3454,16 +3478,16 @@
       <c r="A110" t="s">
         <v>145</v>
       </c>
-      <c r="B110" s="7">
+      <c r="B110" s="4">
         <v>35</v>
       </c>
-      <c r="C110" s="14" t="s">
+      <c r="C110" t="s">
         <v>138</v>
       </c>
-      <c r="D110" s="7" t="s">
+      <c r="D110" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E110" s="7" t="s">
+      <c r="E110" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3471,16 +3495,16 @@
       <c r="A111" t="s">
         <v>146</v>
       </c>
-      <c r="B111" s="7">
+      <c r="B111" s="4">
         <v>54</v>
       </c>
-      <c r="C111" s="14" t="s">
+      <c r="C111" t="s">
         <v>138</v>
       </c>
-      <c r="D111" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E111" s="7" t="s">
+      <c r="D111" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E111" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3488,16 +3512,16 @@
       <c r="A112" t="s">
         <v>147</v>
       </c>
-      <c r="B112" s="7">
+      <c r="B112" s="4">
         <v>35</v>
       </c>
-      <c r="C112" s="14" t="s">
+      <c r="C112" t="s">
         <v>138</v>
       </c>
-      <c r="D112" s="7" t="s">
+      <c r="D112" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E112" s="7" t="s">
+      <c r="E112" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3505,16 +3529,16 @@
       <c r="A113" t="s">
         <v>148</v>
       </c>
-      <c r="B113" s="7">
+      <c r="B113" s="4">
         <v>12</v>
       </c>
-      <c r="C113" s="14" t="s">
+      <c r="C113" t="s">
         <v>138</v>
       </c>
-      <c r="D113" s="7" t="s">
+      <c r="D113" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E113" s="7" t="s">
+      <c r="E113" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3522,16 +3546,16 @@
       <c r="A114" t="s">
         <v>150</v>
       </c>
-      <c r="B114" s="7">
+      <c r="B114" s="4">
         <v>36</v>
       </c>
-      <c r="C114" s="14" t="s">
+      <c r="C114" t="s">
         <v>149</v>
       </c>
-      <c r="D114" s="7" t="s">
+      <c r="D114" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E114" s="7" t="s">
+      <c r="E114" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3539,16 +3563,16 @@
       <c r="A115" t="s">
         <v>151</v>
       </c>
-      <c r="B115" s="7">
+      <c r="B115" s="4">
         <v>37</v>
       </c>
-      <c r="C115" s="14" t="s">
+      <c r="C115" t="s">
         <v>149</v>
       </c>
-      <c r="D115" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E115" s="7" t="s">
+      <c r="D115" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E115" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3556,16 +3580,16 @@
       <c r="A116" t="s">
         <v>152</v>
       </c>
-      <c r="B116" s="7">
+      <c r="B116" s="4">
         <v>19</v>
       </c>
-      <c r="C116" s="14" t="s">
+      <c r="C116" t="s">
         <v>149</v>
       </c>
-      <c r="D116" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E116" s="7" t="s">
+      <c r="D116" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E116" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3573,16 +3597,16 @@
       <c r="A117" t="s">
         <v>153</v>
       </c>
-      <c r="B117" s="7">
-        <v>15</v>
-      </c>
-      <c r="C117" s="14" t="s">
+      <c r="B117" s="4">
+        <v>15</v>
+      </c>
+      <c r="C117" t="s">
         <v>149</v>
       </c>
-      <c r="D117" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E117" s="7" t="s">
+      <c r="D117" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E117" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3590,16 +3614,16 @@
       <c r="A118" t="s">
         <v>154</v>
       </c>
-      <c r="B118" s="7">
+      <c r="B118" s="4">
         <v>37</v>
       </c>
-      <c r="C118" s="14" t="s">
+      <c r="C118" t="s">
         <v>156</v>
       </c>
-      <c r="D118" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E118" s="7" t="s">
+      <c r="D118" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E118" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3607,16 +3631,16 @@
       <c r="A119" t="s">
         <v>155</v>
       </c>
-      <c r="B119" s="7">
-        <v>14</v>
-      </c>
-      <c r="C119" s="14" t="s">
+      <c r="B119" s="4">
+        <v>14</v>
+      </c>
+      <c r="C119" t="s">
         <v>156</v>
       </c>
-      <c r="D119" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E119" s="7" t="s">
+      <c r="D119" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E119" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3624,16 +3648,16 @@
       <c r="A120" t="s">
         <v>157</v>
       </c>
-      <c r="B120" s="7">
+      <c r="B120" s="4">
         <v>19</v>
       </c>
-      <c r="C120" s="14" t="s">
+      <c r="C120" t="s">
         <v>158</v>
       </c>
-      <c r="D120" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E120" s="7" t="s">
+      <c r="D120" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E120" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3641,16 +3665,16 @@
       <c r="A121" t="s">
         <v>159</v>
       </c>
-      <c r="B121" s="7">
+      <c r="B121" s="4">
         <v>3</v>
       </c>
-      <c r="C121" s="14" t="s">
+      <c r="C121" t="s">
         <v>160</v>
       </c>
-      <c r="D121" s="7" t="s">
+      <c r="D121" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E121" s="7" t="s">
+      <c r="E121" s="4" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3658,16 +3682,16 @@
       <c r="A122" t="s">
         <v>161</v>
       </c>
-      <c r="B122" s="7">
+      <c r="B122" s="4">
         <v>6</v>
       </c>
-      <c r="C122" s="14" t="s">
+      <c r="C122" t="s">
         <v>160</v>
       </c>
-      <c r="D122" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E122" s="7" t="s">
+      <c r="D122" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E122" s="4" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3675,16 +3699,16 @@
       <c r="A123" t="s">
         <v>162</v>
       </c>
-      <c r="B123" s="7">
+      <c r="B123" s="4">
         <v>13</v>
       </c>
-      <c r="C123" s="14" t="s">
+      <c r="C123" t="s">
         <v>160</v>
       </c>
-      <c r="D123" s="7" t="s">
+      <c r="D123" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E123" s="7" t="s">
+      <c r="E123" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3692,16 +3716,16 @@
       <c r="A124" t="s">
         <v>163</v>
       </c>
-      <c r="B124" s="7">
+      <c r="B124" s="4">
         <v>35</v>
       </c>
-      <c r="C124" s="14" t="s">
+      <c r="C124" t="s">
         <v>160</v>
       </c>
-      <c r="D124" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E124" s="7" t="s">
+      <c r="D124" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E124" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3709,16 +3733,16 @@
       <c r="A125" t="s">
         <v>164</v>
       </c>
-      <c r="B125" s="7">
+      <c r="B125" s="4">
         <v>18</v>
       </c>
-      <c r="C125" s="14" t="s">
+      <c r="C125" t="s">
         <v>160</v>
       </c>
-      <c r="D125" s="7" t="s">
+      <c r="D125" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E125" s="7" t="s">
+      <c r="E125" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3726,16 +3750,16 @@
       <c r="A126" t="s">
         <v>169</v>
       </c>
-      <c r="B126" s="7">
+      <c r="B126" s="4">
         <v>35</v>
       </c>
-      <c r="C126" s="14" t="s">
+      <c r="C126" t="s">
         <v>138</v>
       </c>
-      <c r="D126" s="7" t="s">
+      <c r="D126" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E126" s="7" t="s">
+      <c r="E126" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3752,7 +3776,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0C0D34E-0AAF-D047-AF9D-3B562D223DA2}">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="180" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScaleNormal="180" workbookViewId="0">
       <selection activeCell="E9" sqref="A1:F19"/>
     </sheetView>
   </sheetViews>
@@ -3765,34 +3789,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="17" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="27" t="s">
         <v>183</v>
       </c>
-      <c r="F1" s="17"/>
+      <c r="F1" s="27"/>
     </row>
     <row r="2" spans="1:6" ht="24">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="12" t="s">
         <v>182</v>
       </c>
     </row>
@@ -3800,7 +3824,7 @@
       <c r="A3" t="s">
         <v>210</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="19" t="s">
         <v>184</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -3818,7 +3842,7 @@
       <c r="A4" t="s">
         <v>219</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="17" t="s">
         <v>187</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -3836,7 +3860,7 @@
       <c r="A5" t="s">
         <v>207</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="16" t="s">
         <v>186</v>
       </c>
       <c r="E5" t="s">
@@ -3850,7 +3874,7 @@
       <c r="A6" t="s">
         <v>208</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="16" t="s">
         <v>185</v>
       </c>
       <c r="E6" t="s">
@@ -3861,10 +3885,10 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="51">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="20" t="s">
         <v>188</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -3882,7 +3906,7 @@
       <c r="A8" t="s">
         <v>201</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="15" t="s">
         <v>189</v>
       </c>
       <c r="C8" s="1"/>
@@ -3898,14 +3922,14 @@
       <c r="A9" t="s">
         <v>201</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="15" t="s">
         <v>190</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>206</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="22" t="s">
         <v>237</v>
       </c>
       <c r="F9" t="s">
@@ -3916,7 +3940,7 @@
       <c r="A10" t="s">
         <v>201</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="14" t="s">
         <v>191</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -3934,7 +3958,7 @@
       <c r="A11" t="s">
         <v>205</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="14" t="s">
         <v>192</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -3952,14 +3976,14 @@
       <c r="A12" t="s">
         <v>203</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="14" t="s">
         <v>193</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>215</v>
       </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="31" t="s">
+      <c r="E12" s="22" t="s">
         <v>243</v>
       </c>
       <c r="F12" t="s">
@@ -3970,7 +3994,7 @@
       <c r="A13" t="s">
         <v>203</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="14" t="s">
         <v>194</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -3982,7 +4006,7 @@
       <c r="A14" t="s">
         <v>203</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="14" t="s">
         <v>195</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -3994,7 +4018,7 @@
       <c r="A15" t="s">
         <v>202</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="14" t="s">
         <v>196</v>
       </c>
     </row>
@@ -4002,7 +4026,7 @@
       <c r="A16" t="s">
         <v>201</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="14" t="s">
         <v>197</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -4014,7 +4038,7 @@
       <c r="A17" t="s">
         <v>201</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="14" t="s">
         <v>198</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -4026,7 +4050,7 @@
       <c r="A18" t="s">
         <v>246</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="14" t="s">
         <v>199</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -4038,25 +4062,25 @@
       <c r="A19" t="s">
         <v>218</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="21" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="24"/>
-      <c r="B26" s="22" t="s">
+      <c r="A26" s="16"/>
+      <c r="B26" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="26"/>
-      <c r="B27" s="22" t="s">
+      <c r="A27" s="14"/>
+      <c r="B27" s="14" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="27"/>
-      <c r="B28" s="22" t="s">
+      <c r="A28" s="18"/>
+      <c r="B28" s="14" t="s">
         <v>224</v>
       </c>
     </row>
@@ -4070,12 +4094,166 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE51D3BB-88C0-454F-8082-B3B045548427}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="57.83203125" customWidth="1"/>
+    <col min="3" max="3" width="25.5" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B2">
+        <v>33</v>
+      </c>
+      <c r="C2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3">
+        <v>123</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>252</v>
+      </c>
+      <c r="B4">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B5">
+        <v>116</v>
+      </c>
+      <c r="C5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>253</v>
+      </c>
+      <c r="B6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B7">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>255</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>256</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>147</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>258</v>
+      </c>
+      <c r="B14">
+        <v>143</v>
+      </c>
+      <c r="C14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>257</v>
+      </c>
+      <c r="B15">
+        <f>SUM(B2:B14)</f>
+        <v>590</v>
+      </c>
+      <c r="C15">
+        <f ca="1">SUM(C2:C15)</f>
+        <v>41</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>